--- a/ExtractionExperimentalDesign/Extraction_experimentalDesignResultsSummary_incomplt.xlsx
+++ b/ExtractionExperimentalDesign/Extraction_experimentalDesignResultsSummary_incomplt.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marshall\Desktop\Temp\ExtractionExperimentalDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537F15DA-25FA-43A0-AF76-8BFD2F62B5FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E14C2D8-9CDB-4E86-911D-4DDD3360A61D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{52ABC182-FABF-404D-88E3-9B63B1EC8E6A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="101">
   <si>
     <t>Decarb</t>
   </si>
@@ -61,21 +61,6 @@
     <t>Crude C1 - Weight g</t>
   </si>
   <si>
-    <t xml:space="preserve"> C2 - Weight g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C3 - Weight g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C1 - Cannabinoids % w/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C2 - Cannabinoids % w/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C3 - Cannabinoids % w/w</t>
-  </si>
-  <si>
     <t xml:space="preserve"> C1 - Pictures Mark "complete" when taken</t>
   </si>
   <si>
@@ -88,12 +73,6 @@
     <t>Waxes C1 - Dry Weight g</t>
   </si>
   <si>
-    <t xml:space="preserve"> C2 - Dry Weight g</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C3 - Dry Weight g</t>
-  </si>
-  <si>
     <t>Refined C1 - Weight g</t>
   </si>
   <si>
@@ -112,24 +91,9 @@
     <t>Terpenes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Crude C1 % w/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  C2 % w/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  C3 % w/w</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Refined C1 % w/w</t>
-  </si>
-  <si>
     <t>Terpenes Decarb High THC  % w/w</t>
   </si>
   <si>
-    <t xml:space="preserve"> Spent (pooled) High THC-EXP02-Spent N/A</t>
-  </si>
-  <si>
     <t>BLQ</t>
   </si>
   <si>
@@ -305,6 +269,66 @@
   </si>
   <si>
     <t>Sample Naming Nomenclature = EXP#-Material-Collector#</t>
+  </si>
+  <si>
+    <t>Terpenes  Spent (pooled) High THC-EXP02-Spent N/A</t>
+  </si>
+  <si>
+    <t>Terpenes  Crude C1 % w/w</t>
+  </si>
+  <si>
+    <t>Terpenes   C2 % w/w</t>
+  </si>
+  <si>
+    <t>Terpenes   C3 % w/w</t>
+  </si>
+  <si>
+    <t>Terpenes  Refined C1 % w/w</t>
+  </si>
+  <si>
+    <t>Refined  C2 - Weight g</t>
+  </si>
+  <si>
+    <t>Refined  C3 - Weight g</t>
+  </si>
+  <si>
+    <t>Refined  C1 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Refined  C2 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Refined  C3 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Refined  C1 - Pictures Mark "complete" when taken</t>
+  </si>
+  <si>
+    <t>Refined  C2 - Pictures Mark "complete" when taken</t>
+  </si>
+  <si>
+    <t>Refined  C3 - Pictures Mark "complete" when taken</t>
+  </si>
+  <si>
+    <t>Crude  C2 - Weight g</t>
+  </si>
+  <si>
+    <t>Crude  C3 - Weight g</t>
+  </si>
+  <si>
+    <t>Crude  C1 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Crude  C2 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Crude  C3 - Cannabinoids % w/w</t>
+  </si>
+  <si>
+    <t>Waxes C2 - Dry Weight g</t>
+  </si>
+  <si>
+    <t>Waxes C3 - Dry Weight g</t>
   </si>
 </sst>
 </file>
@@ -353,7 +377,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -396,6 +420,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -741,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -805,52 +847,16 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -895,15 +901,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -923,15 +920,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -952,24 +940,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -978,6 +951,94 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1292,38 +1353,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F24282E4-4162-4243-86FC-FA6AD61EBA40}">
-  <dimension ref="A1:AS23"/>
+  <dimension ref="A1:AS26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="9.140625" style="96"/>
+    <col min="3" max="3" width="9.140625" style="92"/>
+    <col min="4" max="4" width="9.140625" style="94"/>
+    <col min="5" max="7" width="9.140625" style="4"/>
+    <col min="8" max="15" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="94"/>
+    <col min="17" max="17" width="9.140625" style="92"/>
+    <col min="18" max="18" width="9.140625" style="96"/>
+    <col min="19" max="19" width="9.140625" style="94"/>
+    <col min="20" max="20" width="9.140625" style="92"/>
+    <col min="21" max="21" width="9.140625" style="96"/>
+    <col min="22" max="24" width="0" style="4" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="9.140625" style="94"/>
+    <col min="26" max="26" width="9.140625" style="92"/>
+    <col min="27" max="27" width="9.140625" style="96"/>
+    <col min="28" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:45" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="93" t="s">
+        <v>26</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>2</v>
@@ -1349,105 +1426,105 @@
       <c r="O1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="91" t="s">
+        <v>94</v>
+      </c>
+      <c r="R1" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" s="93" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" s="91" t="s">
+        <v>97</v>
+      </c>
+      <c r="U1" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="V1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="Y1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="Z1" s="91" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AC1" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AD1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AG1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="AH1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="AJ1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="AL1" s="4" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="AM1" s="4" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="AN1" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="AO1" s="4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="AP1" s="4" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="AQ1" s="4" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="AR1" s="4" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="96">
         <v>150</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="92">
         <v>1800</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="94">
         <v>3250</v>
       </c>
       <c r="E2" s="4">
@@ -1463,7 +1540,7 @@
         <v>12.82</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J2" s="4">
         <v>1232.5</v>
@@ -1472,7 +1549,7 @@
         <v>1.169</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M2" s="4">
         <v>1331.5</v>
@@ -1481,42 +1558,42 @@
         <v>1.143</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4">
+        <v>17</v>
+      </c>
+      <c r="P2" s="94">
         <v>51.5</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="92">
         <v>109</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="96">
         <v>177</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="94">
         <v>71.832999999999998</v>
       </c>
-      <c r="T2" s="7">
+      <c r="T2" s="98">
         <v>79.281000000000006</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="96">
         <v>57.500999999999998</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W2" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="94">
         <v>5</v>
       </c>
-      <c r="Z2" s="4">
+      <c r="Z2" s="92">
         <v>6</v>
       </c>
-      <c r="AA2" s="4">
+      <c r="AA2" s="96">
         <v>23</v>
       </c>
       <c r="AB2" s="4">
@@ -1538,22 +1615,22 @@
         <v>71.298000000000002</v>
       </c>
       <c r="AH2" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AI2" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AJ2" s="9" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="AK2" s="4">
         <v>0.33</v>
       </c>
       <c r="AL2" s="9" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AM2" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AN2" s="4">
         <v>0.25</v>
@@ -1576,13 +1653,13 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="96">
         <v>150</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="92">
         <v>2500</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="94">
         <v>3250</v>
       </c>
       <c r="E3" s="4">
@@ -1598,7 +1675,7 @@
         <v>12.82</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J3" s="4">
         <v>1262</v>
@@ -1607,7 +1684,7 @@
         <v>2.9670000000000001</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M3" s="4">
         <v>1277</v>
@@ -1618,40 +1695,40 @@
       <c r="O3" s="4">
         <v>0.61</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="94">
         <v>95</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="92">
         <v>56.5</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="96">
         <v>231</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="94">
         <v>73.804000000000002</v>
       </c>
-      <c r="T3" s="4">
+      <c r="T3" s="92">
         <v>77.274000000000001</v>
       </c>
-      <c r="U3" s="4">
+      <c r="U3" s="96">
         <v>75.132999999999996</v>
       </c>
       <c r="V3" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y3" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y3" s="94">
         <v>11.5</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="92">
         <v>10.5</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="96">
         <v>82</v>
       </c>
       <c r="AB3" s="4">
@@ -1673,13 +1750,13 @@
         <v>71.683000000000007</v>
       </c>
       <c r="AH3" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI3" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ3" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK3" s="4">
         <v>0.33</v>
@@ -1711,13 +1788,13 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="96">
         <v>150</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="92">
         <v>2150</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="94">
         <v>4765.5</v>
       </c>
       <c r="E4" s="4">
@@ -1733,7 +1810,7 @@
         <v>12.82</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="J4" s="4">
         <v>1282</v>
@@ -1742,7 +1819,7 @@
         <v>1.9710000000000001</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M4" s="4">
         <v>1234.5</v>
@@ -1753,40 +1830,40 @@
       <c r="O4" s="4">
         <v>0.45</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="94">
         <v>20</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="92">
         <v>197.5</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="96">
         <v>227.5</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="94">
         <v>66.027000000000001</v>
       </c>
-      <c r="T4" s="4">
+      <c r="T4" s="92">
         <v>74.006</v>
       </c>
-      <c r="U4" s="4">
+      <c r="U4" s="96">
         <v>60.767000000000003</v>
       </c>
       <c r="V4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y4" s="94">
         <v>1</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="92">
         <v>21.5</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="96">
         <v>42.5</v>
       </c>
       <c r="AB4" s="4">
@@ -1808,19 +1885,19 @@
         <v>72.253</v>
       </c>
       <c r="AH4" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ4" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK4" s="4">
         <v>0.33</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="AM4" s="4">
         <v>1.1499999999999999</v>
@@ -1846,13 +1923,13 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="96">
         <v>150</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="92">
         <v>2150</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="94">
         <v>3755.75</v>
       </c>
       <c r="E5" s="4">
@@ -1877,7 +1954,7 @@
         <v>3.9780000000000002</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M5" s="4">
         <v>1266.5</v>
@@ -1886,42 +1963,42 @@
         <v>3.306</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="4">
+        <v>17</v>
+      </c>
+      <c r="P5" s="94">
         <v>45.5</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="92">
         <v>137</v>
       </c>
-      <c r="R5" s="4">
+      <c r="R5" s="96">
         <v>232</v>
       </c>
-      <c r="S5" s="7">
+      <c r="S5" s="99">
         <v>58.76</v>
       </c>
-      <c r="T5" s="4">
+      <c r="T5" s="92">
         <v>67.186999999999998</v>
       </c>
-      <c r="U5" s="4">
+      <c r="U5" s="96">
         <v>55.463999999999999</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y5" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y5" s="94">
         <v>6</v>
       </c>
-      <c r="Z5" s="4">
+      <c r="Z5" s="92">
         <v>14</v>
       </c>
-      <c r="AA5" s="4">
+      <c r="AA5" s="96">
         <v>86</v>
       </c>
       <c r="AB5" s="4">
@@ -1943,13 +2020,13 @@
         <v>73.31</v>
       </c>
       <c r="AH5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI5" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ5" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK5" s="11">
         <v>0.4</v>
@@ -1981,13 +2058,13 @@
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="96">
         <v>150</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="92">
         <v>2150</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="94">
         <v>3755.75</v>
       </c>
       <c r="E6" s="4">
@@ -2012,7 +2089,7 @@
         <v>2.9119999999999999</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M6" s="4">
         <v>1283.5</v>
@@ -2021,42 +2098,42 @@
         <v>6.3230000000000004</v>
       </c>
       <c r="O6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="P6" s="4">
+        <v>17</v>
+      </c>
+      <c r="P6" s="94">
         <v>49.5</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="92">
         <v>178.5</v>
       </c>
-      <c r="R6" s="4">
+      <c r="R6" s="96">
         <v>216</v>
       </c>
-      <c r="S6" s="7">
+      <c r="S6" s="99">
         <v>57.57</v>
       </c>
-      <c r="T6" s="7">
+      <c r="T6" s="98">
         <v>72.900000000000006</v>
       </c>
-      <c r="U6" s="7">
+      <c r="U6" s="97">
         <v>58.256999999999998</v>
       </c>
       <c r="V6" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W6" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y6" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y6" s="94">
         <v>3.5</v>
       </c>
-      <c r="Z6" s="4">
+      <c r="Z6" s="92">
         <v>13.5</v>
       </c>
-      <c r="AA6" s="4">
+      <c r="AA6" s="96">
         <v>31.5</v>
       </c>
       <c r="AB6" s="4">
@@ -2078,13 +2155,13 @@
         <v>58.62</v>
       </c>
       <c r="AH6" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI6" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ6" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK6" s="11">
         <v>0.4</v>
@@ -2102,26 +2179,26 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="AP6" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AQ6" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AR6" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="96">
         <v>150</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="92">
         <v>1100</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="94">
         <v>3250</v>
       </c>
       <c r="E7" s="4">
@@ -2157,40 +2234,40 @@
       <c r="O7" s="4">
         <v>1.1200000000000001</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="94">
         <v>91.5</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="92">
         <v>220.5</v>
       </c>
-      <c r="R7" s="4">
+      <c r="R7" s="96">
         <v>109.5</v>
       </c>
-      <c r="S7" s="4">
+      <c r="S7" s="94">
         <v>57.112000000000002</v>
       </c>
-      <c r="T7" s="7">
+      <c r="T7" s="98">
         <v>65.525000000000006</v>
       </c>
-      <c r="U7" s="4">
+      <c r="U7" s="96">
         <v>49.116</v>
       </c>
       <c r="V7" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y7" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y7" s="94">
         <v>4.5</v>
       </c>
-      <c r="Z7" s="4">
+      <c r="Z7" s="92">
         <v>19.5</v>
       </c>
-      <c r="AA7" s="4">
+      <c r="AA7" s="96">
         <v>4.5</v>
       </c>
       <c r="AB7" s="4">
@@ -2212,13 +2289,13 @@
         <v>55.991</v>
       </c>
       <c r="AH7" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ7" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK7" s="11">
         <v>0.4</v>
@@ -2236,26 +2313,26 @@
         <v>8.15</v>
       </c>
       <c r="AP7" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AQ7" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AR7" s="14" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="96">
         <v>150</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="92">
         <v>1450</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="94">
         <v>1734.5</v>
       </c>
       <c r="E8" s="4">
@@ -2291,40 +2368,40 @@
       <c r="O8" s="4">
         <v>0.45</v>
       </c>
-      <c r="P8" s="4">
+      <c r="P8" s="94">
         <v>205.5</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="92">
         <v>38.5</v>
       </c>
-      <c r="R8" s="4">
+      <c r="R8" s="96">
         <v>106.5</v>
       </c>
-      <c r="S8" s="4">
+      <c r="S8" s="94">
         <v>64.162999999999997</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="92">
         <v>71.552000000000007</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="96">
         <v>44.36</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y8" s="4">
+        <v>24</v>
+      </c>
+      <c r="Y8" s="94">
         <v>9</v>
       </c>
-      <c r="Z8" s="4">
+      <c r="Z8" s="92">
         <v>5</v>
       </c>
-      <c r="AA8" s="4">
+      <c r="AA8" s="96">
         <v>21.5</v>
       </c>
       <c r="AB8" s="4">
@@ -2346,13 +2423,13 @@
         <v>52.718000000000004</v>
       </c>
       <c r="AH8" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI8" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ8" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK8" s="11">
         <v>0.4</v>
@@ -2370,26 +2447,26 @@
         <v>5.97</v>
       </c>
       <c r="AP8" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AQ8" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AR8" s="6" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="96">
         <v>150</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="92">
         <v>1450</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="94">
         <v>2744.25</v>
       </c>
       <c r="E9" s="4">
@@ -2425,40 +2502,40 @@
       <c r="O9" s="4">
         <v>0.05</v>
       </c>
-      <c r="P9" s="4">
+      <c r="P9" s="94">
         <v>68.5</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="92">
         <v>123.5</v>
       </c>
-      <c r="R9" s="4">
+      <c r="R9" s="96">
         <v>128.5</v>
       </c>
-      <c r="S9" s="4">
+      <c r="S9" s="94">
         <v>59.825000000000003</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="92">
         <v>90.584999999999994</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="96">
         <v>56.600999999999999</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y9" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y9" s="94">
         <v>5</v>
       </c>
-      <c r="Z9" s="4">
+      <c r="Z9" s="92">
         <v>8</v>
       </c>
-      <c r="AA9" s="4">
+      <c r="AA9" s="96">
         <v>7</v>
       </c>
       <c r="AB9" s="4">
@@ -2480,13 +2557,13 @@
         <v>55.061</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AK9" s="11">
         <v>0.4</v>
@@ -2495,35 +2572,35 @@
         <v>0.01</v>
       </c>
       <c r="AM9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AN9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AO9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AP9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AQ9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AR9" s="9" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="96">
         <v>150</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="92">
         <v>1450</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="94">
         <v>2744.25</v>
       </c>
       <c r="E10" s="4">
@@ -2559,40 +2636,40 @@
       <c r="O10" s="4">
         <v>0.19</v>
       </c>
-      <c r="P10" s="4">
+      <c r="P10" s="94">
         <v>115.5</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="92">
         <v>96</v>
       </c>
-      <c r="R10" s="4">
+      <c r="R10" s="96">
         <v>152.5</v>
       </c>
-      <c r="S10" s="4">
+      <c r="S10" s="94">
         <v>69.962000000000003</v>
       </c>
-      <c r="T10" s="4">
+      <c r="T10" s="92">
         <v>78.808000000000007</v>
       </c>
-      <c r="U10" s="4">
+      <c r="U10" s="96">
         <v>65.641000000000005</v>
       </c>
       <c r="V10" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W10" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X10" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y10" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y10" s="94">
         <v>8.5</v>
       </c>
-      <c r="Z10" s="4">
+      <c r="Z10" s="92">
         <v>7.5</v>
       </c>
-      <c r="AA10" s="4">
+      <c r="AA10" s="96">
         <v>4.5</v>
       </c>
       <c r="AB10" s="4">
@@ -2614,26 +2691,26 @@
         <v>67.135000000000005</v>
       </c>
       <c r="AH10" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI10" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ10" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="96">
         <v>150</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="92">
         <v>1735</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="94">
         <v>1734.5</v>
       </c>
       <c r="E11" s="4">
@@ -2669,40 +2746,40 @@
       <c r="O11" s="4">
         <v>0.04</v>
       </c>
-      <c r="P11" s="4">
+      <c r="P11" s="94">
         <v>258</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="92">
         <v>40.5</v>
       </c>
-      <c r="R11" s="4">
+      <c r="R11" s="96">
         <v>156</v>
       </c>
-      <c r="S11" s="4">
+      <c r="S11" s="94">
         <v>73.406000000000006</v>
       </c>
-      <c r="T11" s="4">
+      <c r="T11" s="92">
         <v>65.248999999999995</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="96">
         <v>59.173999999999999</v>
       </c>
       <c r="V11" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W11" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y11" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y11" s="94">
         <v>26</v>
       </c>
-      <c r="Z11" s="4">
+      <c r="Z11" s="92">
         <v>2.5</v>
       </c>
-      <c r="AA11" s="4">
+      <c r="AA11" s="96">
         <v>14</v>
       </c>
       <c r="AB11" s="4">
@@ -2724,26 +2801,26 @@
         <v>63.526000000000003</v>
       </c>
       <c r="AH11" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI11" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ11" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="96">
         <v>150</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="92">
         <v>2150</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="94">
         <v>2744.25</v>
       </c>
       <c r="E12" s="4">
@@ -2779,40 +2856,40 @@
       <c r="O12" s="4">
         <v>0.46</v>
       </c>
-      <c r="P12" s="4">
+      <c r="P12" s="94">
         <v>72</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="92">
         <v>75.5</v>
       </c>
-      <c r="R12" s="4">
+      <c r="R12" s="96">
         <v>206.5</v>
       </c>
-      <c r="S12" s="4">
+      <c r="S12" s="94">
         <v>77.768000000000001</v>
       </c>
-      <c r="T12" s="4">
+      <c r="T12" s="92">
         <v>72.471000000000004</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="96">
         <v>85.156999999999996</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y12" s="4">
+        <v>18</v>
+      </c>
+      <c r="Y12" s="94">
         <v>6.5</v>
       </c>
-      <c r="Z12" s="4">
+      <c r="Z12" s="92">
         <v>4.5</v>
       </c>
-      <c r="AA12" s="4">
+      <c r="AA12" s="96">
         <v>11.5</v>
       </c>
       <c r="AB12" s="4">
@@ -2834,26 +2911,26 @@
         <v>68.471000000000004</v>
       </c>
       <c r="AH12" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AI12" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="AJ12" s="9" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="96">
         <v>150</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="92">
         <v>2150</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="94">
         <v>2744.25</v>
       </c>
       <c r="E13" s="15">
@@ -2870,13 +2947,13 @@
       <c r="A14" s="15">
         <v>13</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="96">
         <v>150</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="92">
         <v>1450</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="94">
         <v>4765.5</v>
       </c>
       <c r="E14" s="15">
@@ -2893,13 +2970,13 @@
       <c r="A15" s="15">
         <v>14</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="96">
         <v>150</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="92">
         <v>1800</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="94">
         <v>4259.75</v>
       </c>
       <c r="E15" s="15">
@@ -2916,13 +2993,13 @@
       <c r="A16" s="15">
         <v>15</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="96">
         <v>150</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="92">
         <v>1800</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="94">
         <v>4259.75</v>
       </c>
       <c r="E16" s="15">
@@ -2934,18 +3011,21 @@
       <c r="G16" s="15">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="R16" s="92"/>
+      <c r="S16" s="92"/>
+      <c r="U16" s="92"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>16</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="96">
         <v>150</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="92">
         <v>1450</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="94">
         <v>3755.75</v>
       </c>
       <c r="E17" s="15">
@@ -2958,17 +3038,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>17</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="96">
         <v>150</v>
       </c>
-      <c r="C18" s="15">
+      <c r="C18" s="92">
         <v>1800</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D18" s="94">
         <v>2240.25</v>
       </c>
       <c r="E18" s="15">
@@ -2981,17 +3061,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="96">
         <v>150</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="92">
         <v>1800</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D19" s="94">
         <v>3250</v>
       </c>
       <c r="E19" s="15">
@@ -3004,17 +3084,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>19</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="96">
         <v>150</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C20" s="92">
         <v>1450</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D20" s="94">
         <v>3755.75</v>
       </c>
       <c r="E20" s="15">
@@ -3027,17 +3107,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>20</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="96">
         <v>150</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="92">
         <v>1800</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D21" s="94">
         <v>2240.25</v>
       </c>
       <c r="E21" s="15">
@@ -3050,17 +3130,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>21</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="96">
         <v>150</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C22" s="92">
         <v>1800</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D22" s="94">
         <v>3250</v>
       </c>
       <c r="E22" s="15">
@@ -3073,17 +3153,17 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>22</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="96">
         <v>150</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="92">
         <v>1800</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D23" s="94">
         <v>3250</v>
       </c>
       <c r="E23" s="15">
@@ -3096,8 +3176,55 @@
         <v>40</v>
       </c>
     </row>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="A26" s="100"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="100"/>
+      <c r="F26" s="100"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="100"/>
+      <c r="I26" s="100"/>
+      <c r="J26" s="100"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="100"/>
+      <c r="M26" s="100"/>
+      <c r="N26" s="100"/>
+      <c r="O26" s="100"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="102"/>
+      <c r="R26" s="101"/>
+      <c r="S26" s="103"/>
+      <c r="T26" s="102"/>
+      <c r="U26" s="101"/>
+      <c r="V26" s="100"/>
+      <c r="W26" s="100"/>
+      <c r="X26" s="100"/>
+      <c r="Y26" s="103"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="101"/>
+      <c r="AB26" s="100"/>
+      <c r="AC26" s="100"/>
+      <c r="AD26" s="100"/>
+      <c r="AE26" s="100"/>
+      <c r="AF26" s="100"/>
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="100"/>
+      <c r="AI26" s="100"/>
+      <c r="AJ26" s="100"/>
+      <c r="AK26" s="100"/>
+      <c r="AL26" s="100"/>
+      <c r="AM26" s="100"/>
+      <c r="AN26" s="100"/>
+      <c r="AO26" s="100"/>
+      <c r="AP26" s="100"/>
+      <c r="AQ26" s="100"/>
+      <c r="AR26" s="100"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3127,78 +3254,78 @@
   <sheetData>
     <row r="1" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="P2" s="28" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="I4" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="33"/>
-      <c r="M4" s="34"/>
-      <c r="O4" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="S4" s="37"/>
-      <c r="T4" s="35" t="s">
-        <v>48</v>
+      <c r="A4" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="114"/>
+      <c r="C4" s="114"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="115"/>
+      <c r="I4" s="116" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" s="117"/>
+      <c r="K4" s="117"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="118"/>
+      <c r="O4" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="108"/>
+      <c r="R4" s="108"/>
+      <c r="S4" s="108"/>
+      <c r="T4" s="104" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E5" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="G5" s="41" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="42"/>
-      <c r="O5" s="43"/>
+      <c r="A5" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="104" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="107" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="108"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="109"/>
+      <c r="O5" s="105"/>
       <c r="P5" s="23" t="str">
         <f>B6</f>
         <v>C2 press</v>
@@ -3215,45 +3342,45 @@
         <f>B9</f>
         <v>C2 temp</v>
       </c>
-      <c r="T5" s="43"/>
+      <c r="T5" s="105"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="A6" s="33">
         <v>1</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="B6" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="35">
         <v>1100</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="34">
         <f>(C6+E6)/2</f>
         <v>1800</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="35">
         <v>2500</v>
       </c>
-      <c r="F6" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="47">
+      <c r="F6" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="36">
         <v>5</v>
       </c>
-      <c r="I6" s="48"/>
-      <c r="J6" s="49">
+      <c r="I6" s="106"/>
+      <c r="J6" s="37">
         <v>1</v>
       </c>
-      <c r="K6" s="50">
+      <c r="K6" s="38">
         <v>2</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="37">
         <v>3</v>
       </c>
-      <c r="M6" s="51">
+      <c r="M6" s="39">
         <v>4</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="40">
         <v>1</v>
       </c>
       <c r="P6" s="16">
@@ -3272,49 +3399,49 @@
         <f t="shared" ref="S6:S26" si="3">($E$9-$D$9)*M7+$D$9</f>
         <v>40</v>
       </c>
-      <c r="T6" s="53" t="s">
+      <c r="T6" s="41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>2</v>
+      </c>
+      <c r="B7" s="34" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="44">
-        <v>2</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="46">
+      <c r="C7" s="35">
         <v>1500</v>
       </c>
-      <c r="D7" s="45">
+      <c r="D7" s="34">
         <f>(C7+E7)/2</f>
         <v>3250</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="35">
         <v>5000</v>
       </c>
-      <c r="F7" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="47">
+      <c r="F7" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7" s="36">
         <v>7</v>
       </c>
-      <c r="I7" s="54">
+      <c r="I7" s="42">
         <v>1</v>
       </c>
-      <c r="J7" s="55">
+      <c r="J7" s="43">
         <v>0</v>
       </c>
-      <c r="K7" s="54">
+      <c r="K7" s="42">
         <v>0</v>
       </c>
-      <c r="L7" s="54">
+      <c r="L7" s="42">
         <v>0</v>
       </c>
-      <c r="M7" s="56">
+      <c r="M7" s="44">
         <v>0</v>
       </c>
-      <c r="O7" s="57">
+      <c r="O7" s="45">
         <f>O6+1</f>
         <v>2</v>
       </c>
@@ -3334,50 +3461,50 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T7" s="58" t="s">
-        <v>26</v>
+      <c r="T7" s="46" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="44">
+      <c r="A8" s="33">
         <v>3</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="46">
-        <v>40</v>
-      </c>
-      <c r="D8" s="45">
+      <c r="B8" s="34" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="35">
+        <v>40</v>
+      </c>
+      <c r="D8" s="34">
         <f>(C8+E8)/2</f>
         <v>50</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="35">
         <v>60</v>
       </c>
-      <c r="F8" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="G8" s="47">
+      <c r="F8" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="36">
         <v>7</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="47">
         <f>I7+1</f>
         <v>2</v>
       </c>
-      <c r="J8" s="60">
+      <c r="J8" s="48">
         <v>1</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="47">
         <v>0</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="47">
         <v>0</v>
       </c>
-      <c r="M8" s="61">
+      <c r="M8" s="49">
         <v>0</v>
       </c>
-      <c r="O8" s="57">
+      <c r="O8" s="45">
         <f t="shared" ref="O8:O26" si="4">O7+1</f>
         <v>3</v>
       </c>
@@ -3397,50 +3524,50 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T8" s="62" t="s">
-        <v>26</v>
+      <c r="T8" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="63">
+      <c r="A9" s="51">
         <v>4</v>
       </c>
-      <c r="B9" s="64" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="65">
+      <c r="B9" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="53">
         <v>30</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D9" s="52">
         <f>(C9+E9)/2</f>
         <v>40</v>
       </c>
-      <c r="E9" s="65">
+      <c r="E9" s="53">
         <v>50</v>
       </c>
-      <c r="F9" s="64" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="66">
+      <c r="F9" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="54">
         <v>3</v>
       </c>
-      <c r="I9" s="59">
+      <c r="I9" s="47">
         <f t="shared" ref="I9:I27" si="5">I8+1</f>
         <v>3</v>
       </c>
-      <c r="J9" s="60">
+      <c r="J9" s="48">
         <v>0.5</v>
       </c>
-      <c r="K9" s="59">
+      <c r="K9" s="47">
         <v>0.86599999999999999</v>
       </c>
-      <c r="L9" s="59">
+      <c r="L9" s="47">
         <v>0</v>
       </c>
-      <c r="M9" s="61">
+      <c r="M9" s="49">
         <v>0</v>
       </c>
-      <c r="O9" s="57">
+      <c r="O9" s="45">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
@@ -3460,29 +3587,29 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T9" s="62" t="s">
-        <v>26</v>
+      <c r="T9" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I10" s="59">
+      <c r="I10" s="47">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="J10" s="60">
+      <c r="J10" s="48">
         <v>0.5</v>
       </c>
-      <c r="K10" s="59">
+      <c r="K10" s="47">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="47">
         <v>0.81599999999999995</v>
       </c>
-      <c r="M10" s="61">
+      <c r="M10" s="49">
         <v>0</v>
       </c>
-      <c r="N10" s="67"/>
-      <c r="O10" s="57">
+      <c r="N10" s="55"/>
+      <c r="O10" s="45">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
@@ -3502,36 +3629,36 @@
         <f t="shared" si="3"/>
         <v>47.91</v>
       </c>
-      <c r="T10" s="62" t="s">
-        <v>26</v>
+      <c r="T10" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="70"/>
-      <c r="I11" s="59">
+      <c r="A11" s="119" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="I11" s="47">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="J11" s="60">
+      <c r="J11" s="48">
         <v>0.5</v>
       </c>
-      <c r="K11" s="59">
+      <c r="K11" s="47">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L11" s="59">
+      <c r="L11" s="47">
         <v>0.20399999999999999</v>
       </c>
-      <c r="M11" s="61">
+      <c r="M11" s="49">
         <v>0.79100000000000004</v>
       </c>
-      <c r="N11" s="71"/>
-      <c r="O11" s="57">
+      <c r="N11" s="56"/>
+      <c r="O11" s="45">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
@@ -3551,36 +3678,36 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T11" s="62" t="s">
-        <v>26</v>
+      <c r="T11" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="72" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="74"/>
-      <c r="I12" s="59">
+      <c r="A12" s="57" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="I12" s="47">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="J12" s="60">
+      <c r="J12" s="48">
         <v>-1</v>
       </c>
-      <c r="K12" s="59">
+      <c r="K12" s="47">
         <v>0</v>
       </c>
-      <c r="L12" s="59">
+      <c r="L12" s="47">
         <v>0</v>
       </c>
-      <c r="M12" s="61">
+      <c r="M12" s="49">
         <v>0</v>
       </c>
-      <c r="N12" s="71"/>
-      <c r="O12" s="57">
+      <c r="N12" s="56"/>
+      <c r="O12" s="45">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
@@ -3600,39 +3727,39 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T12" s="62" t="s">
-        <v>26</v>
+      <c r="T12" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="73"/>
-      <c r="D13" s="73"/>
-      <c r="E13" s="74"/>
-      <c r="I13" s="59">
+      <c r="A13" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
+      <c r="E13" s="59"/>
+      <c r="I13" s="47">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="J13" s="60">
+      <c r="J13" s="48">
         <f t="shared" ref="J13:M15" si="6">J9*-1</f>
         <v>-0.5</v>
       </c>
-      <c r="K13" s="59">
+      <c r="K13" s="47">
         <f t="shared" si="6"/>
         <v>-0.86599999999999999</v>
       </c>
-      <c r="L13" s="59">
+      <c r="L13" s="47">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="M13" s="61">
+      <c r="M13" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O13" s="57">
+      <c r="O13" s="45">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
@@ -3652,39 +3779,39 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T13" s="62" t="s">
-        <v>26</v>
+      <c r="T13" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="74"/>
-      <c r="I14" s="59">
+      <c r="A14" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="60"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="I14" s="47">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="J14" s="60">
+      <c r="J14" s="48">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="K14" s="59">
+      <c r="K14" s="47">
         <f t="shared" si="6"/>
         <v>-0.28899999999999998</v>
       </c>
-      <c r="L14" s="59">
+      <c r="L14" s="47">
         <f t="shared" si="6"/>
         <v>-0.81599999999999995</v>
       </c>
-      <c r="M14" s="61">
+      <c r="M14" s="49">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O14" s="57">
+      <c r="O14" s="45">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
@@ -3704,39 +3831,39 @@
         <f t="shared" si="3"/>
         <v>32.090000000000003</v>
       </c>
-      <c r="T14" s="62" t="s">
-        <v>26</v>
+      <c r="T14" s="50" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="76" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="75"/>
-      <c r="C15" s="73"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
-      <c r="I15" s="59">
+      <c r="A15" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="59"/>
+      <c r="I15" s="47">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="J15" s="60">
+      <c r="J15" s="48">
         <f t="shared" si="6"/>
         <v>-0.5</v>
       </c>
-      <c r="K15" s="59">
+      <c r="K15" s="47">
         <f t="shared" si="6"/>
         <v>-0.28899999999999998</v>
       </c>
-      <c r="L15" s="59">
+      <c r="L15" s="47">
         <f t="shared" si="6"/>
         <v>-0.20399999999999999</v>
       </c>
-      <c r="M15" s="61">
+      <c r="M15" s="49">
         <f t="shared" si="6"/>
         <v>-0.79100000000000004</v>
       </c>
-      <c r="O15" s="57">
+      <c r="O15" s="45">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
@@ -3755,39 +3882,39 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T15" s="62" t="s">
-        <v>26</v>
+      <c r="T15" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="76" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
-      <c r="G16" s="77"/>
-      <c r="I16" s="59">
+      <c r="A16" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="60"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="59"/>
+      <c r="G16" s="62"/>
+      <c r="I16" s="47">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="J16" s="59">
+      <c r="J16" s="47">
         <v>0.5</v>
       </c>
-      <c r="K16" s="59">
+      <c r="K16" s="47">
         <v>-0.86599999999999999</v>
       </c>
-      <c r="L16" s="59">
+      <c r="L16" s="47">
         <v>0</v>
       </c>
-      <c r="M16" s="61">
+      <c r="M16" s="49">
         <v>0</v>
       </c>
-      <c r="O16" s="57">
+      <c r="O16" s="45">
         <f t="shared" si="4"/>
         <v>11</v>
       </c>
@@ -3807,37 +3934,37 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T16" s="62" t="s">
-        <v>64</v>
+      <c r="T16" s="50" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="79"/>
-      <c r="G17" s="77"/>
-      <c r="I17" s="59">
+      <c r="A17" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="64"/>
+      <c r="G17" s="62"/>
+      <c r="I17" s="47">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="J17" s="60">
+      <c r="J17" s="48">
         <v>0.5</v>
       </c>
-      <c r="K17" s="59">
+      <c r="K17" s="47">
         <v>-0.28899999999999998</v>
       </c>
-      <c r="L17" s="59">
+      <c r="L17" s="47">
         <v>-0.81599999999999995</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="49">
         <f>M12*-1</f>
         <v>0</v>
       </c>
-      <c r="O17" s="57">
+      <c r="O17" s="45">
         <f t="shared" si="4"/>
         <v>12</v>
       </c>
@@ -3857,33 +3984,33 @@
         <f t="shared" si="3"/>
         <v>32.090000000000003</v>
       </c>
-      <c r="T17" s="58"/>
+      <c r="T17" s="46"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
-      <c r="I18" s="59">
+      <c r="A18" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="I18" s="47">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="J18" s="60">
+      <c r="J18" s="48">
         <v>0.5</v>
       </c>
-      <c r="K18" s="59">
+      <c r="K18" s="47">
         <v>-0.28899999999999998</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="47">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="M18" s="61">
+      <c r="M18" s="49">
         <v>-0.79100000000000004</v>
       </c>
-      <c r="O18" s="57">
+      <c r="O18" s="45">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
@@ -3903,33 +4030,33 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T18" s="58"/>
+      <c r="T18" s="46"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
-      <c r="I19" s="59">
+      <c r="A19" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="I19" s="47">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="48">
         <v>-0.5</v>
       </c>
-      <c r="K19" s="59">
+      <c r="K19" s="47">
         <v>0.86599999999999999</v>
       </c>
-      <c r="L19" s="59">
+      <c r="L19" s="47">
         <v>0</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="49">
         <v>0</v>
       </c>
-      <c r="O19" s="57">
+      <c r="O19" s="45">
         <f t="shared" si="4"/>
         <v>14</v>
       </c>
@@ -3949,33 +4076,33 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T19" s="58"/>
+      <c r="T19" s="46"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="74"/>
-      <c r="I20" s="59">
+      <c r="A20" s="63" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="I20" s="47">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="J20" s="60">
+      <c r="J20" s="48">
         <v>0</v>
       </c>
-      <c r="K20" s="59">
+      <c r="K20" s="47">
         <v>0.57699999999999996</v>
       </c>
-      <c r="L20" s="59">
+      <c r="L20" s="47">
         <v>-0.81599999999999995</v>
       </c>
-      <c r="M20" s="61">
+      <c r="M20" s="49">
         <v>0</v>
       </c>
-      <c r="O20" s="57">
+      <c r="O20" s="45">
         <f t="shared" si="4"/>
         <v>15</v>
       </c>
@@ -3995,33 +4122,33 @@
         <f t="shared" si="3"/>
         <v>32.090000000000003</v>
       </c>
-      <c r="T20" s="58"/>
+      <c r="T20" s="46"/>
     </row>
     <row r="21" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="80" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="82"/>
-      <c r="I21" s="59">
+      <c r="A21" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="I21" s="47">
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="J21" s="60">
+      <c r="J21" s="48">
         <v>0</v>
       </c>
-      <c r="K21" s="59">
+      <c r="K21" s="47">
         <v>0.57699999999999996</v>
       </c>
-      <c r="L21" s="59">
+      <c r="L21" s="47">
         <v>-0.20399999999999999</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="49">
         <v>-0.79100000000000004</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="45">
         <f t="shared" si="4"/>
         <v>16</v>
       </c>
@@ -4041,26 +4168,26 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T21" s="58"/>
+      <c r="T21" s="46"/>
     </row>
     <row r="22" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I22" s="59">
+      <c r="I22" s="47">
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="J22" s="60">
+      <c r="J22" s="48">
         <v>-0.5</v>
       </c>
-      <c r="K22" s="59">
+      <c r="K22" s="47">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L22" s="59">
+      <c r="L22" s="47">
         <v>0.81599999999999995</v>
       </c>
-      <c r="M22" s="61">
+      <c r="M22" s="49">
         <v>0</v>
       </c>
-      <c r="O22" s="57">
+      <c r="O22" s="45">
         <f t="shared" si="4"/>
         <v>17</v>
       </c>
@@ -4080,32 +4207,32 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="T22" s="58"/>
+      <c r="T22" s="46"/>
     </row>
     <row r="23" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="83" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="I23" s="59">
+      <c r="A23" s="122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="123"/>
+      <c r="C23" s="124"/>
+      <c r="I23" s="47">
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="J23" s="60">
+      <c r="J23" s="48">
         <v>0</v>
       </c>
-      <c r="K23" s="59">
+      <c r="K23" s="47">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="L23" s="59">
+      <c r="L23" s="47">
         <v>0.81599999999999995</v>
       </c>
-      <c r="M23" s="61">
+      <c r="M23" s="49">
         <f>M19</f>
         <v>0</v>
       </c>
-      <c r="O23" s="57">
+      <c r="O23" s="45">
         <f t="shared" si="4"/>
         <v>18</v>
       </c>
@@ -4125,31 +4252,31 @@
         <f t="shared" si="3"/>
         <v>32.090000000000003</v>
       </c>
-      <c r="T23" s="58"/>
+      <c r="T23" s="46"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="86" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="I24" s="59">
+      <c r="A24" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="I24" s="47">
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="J24" s="60">
+      <c r="J24" s="48">
         <v>0</v>
       </c>
-      <c r="K24" s="59">
+      <c r="K24" s="47">
         <v>0</v>
       </c>
-      <c r="L24" s="59">
+      <c r="L24" s="47">
         <v>0.61199999999999999</v>
       </c>
-      <c r="M24" s="61">
+      <c r="M24" s="49">
         <v>-0.79100000000000004</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="45">
         <f t="shared" si="4"/>
         <v>19</v>
       </c>
@@ -4169,31 +4296,31 @@
         <f t="shared" si="3"/>
         <v>47.91</v>
       </c>
-      <c r="T24" s="58"/>
+      <c r="T24" s="46"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="86" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="89"/>
-      <c r="C25" s="88"/>
-      <c r="I25" s="59">
+      <c r="A25" s="68" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="70"/>
+      <c r="I25" s="47">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="J25" s="60">
+      <c r="J25" s="48">
         <v>-0.5</v>
       </c>
-      <c r="K25" s="59">
+      <c r="K25" s="47">
         <v>0.28899999999999998</v>
       </c>
-      <c r="L25" s="59">
+      <c r="L25" s="47">
         <v>0.20399999999999999</v>
       </c>
-      <c r="M25" s="61">
+      <c r="M25" s="49">
         <v>0.79100000000000004</v>
       </c>
-      <c r="O25" s="57">
+      <c r="O25" s="45">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -4213,31 +4340,31 @@
         <f t="shared" si="3"/>
         <v>47.91</v>
       </c>
-      <c r="T25" s="58"/>
+      <c r="T25" s="46"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="88"/>
-      <c r="I26" s="59">
+      <c r="A26" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" s="71"/>
+      <c r="C26" s="70"/>
+      <c r="I26" s="47">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="J26" s="60">
+      <c r="J26" s="48">
         <v>0</v>
       </c>
-      <c r="K26" s="59">
+      <c r="K26" s="47">
         <v>-0.57699999999999996</v>
       </c>
-      <c r="L26" s="59">
+      <c r="L26" s="47">
         <v>0.20399999999999999</v>
       </c>
-      <c r="M26" s="61">
+      <c r="M26" s="49">
         <v>0.79100000000000004</v>
       </c>
-      <c r="O26" s="57">
+      <c r="O26" s="45">
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
@@ -4257,32 +4384,32 @@
         <f t="shared" si="3"/>
         <v>47.91</v>
       </c>
-      <c r="T26" s="58"/>
+      <c r="T26" s="46"/>
     </row>
     <row r="27" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="91"/>
-      <c r="C27" s="92"/>
-      <c r="I27" s="59">
+      <c r="A27" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="73"/>
+      <c r="C27" s="74"/>
+      <c r="I27" s="47">
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="J27" s="60">
+      <c r="J27" s="48">
         <v>0</v>
       </c>
-      <c r="K27" s="59">
+      <c r="K27" s="47">
         <v>0</v>
       </c>
-      <c r="L27" s="59">
+      <c r="L27" s="47">
         <v>-0.61199999999999999</v>
       </c>
-      <c r="M27" s="61">
+      <c r="M27" s="49">
         <v>0.79100000000000004</v>
       </c>
-      <c r="O27" s="93" t="s">
-        <v>75</v>
+      <c r="O27" s="75" t="s">
+        <v>63</v>
       </c>
       <c r="P27" s="21">
         <v>1800</v>
@@ -4296,36 +4423,36 @@
       <c r="S27" s="22">
         <v>40</v>
       </c>
-      <c r="T27" s="94"/>
+      <c r="T27" s="76"/>
     </row>
     <row r="28" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="I28" s="95" t="s">
-        <v>75</v>
-      </c>
-      <c r="J28" s="96">
+      <c r="I28" s="77" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="78">
         <v>0</v>
       </c>
-      <c r="K28" s="95">
+      <c r="K28" s="77">
         <v>0</v>
       </c>
-      <c r="L28" s="95">
+      <c r="L28" s="77">
         <v>0</v>
       </c>
-      <c r="M28" s="97">
+      <c r="M28" s="79">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="98" t="s">
-        <v>76</v>
-      </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="H29" s="101" t="s">
-        <v>77</v>
-      </c>
-      <c r="I29" s="101"/>
+      <c r="A29" s="110" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="112"/>
+      <c r="H29" s="125" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="125"/>
       <c r="J29" s="2">
         <v>5</v>
       </c>
@@ -4340,22 +4467,22 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>79</v>
-      </c>
-      <c r="C30" s="103" t="s">
-        <v>80</v>
-      </c>
-      <c r="D30" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H30" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="I30" s="105"/>
+      <c r="A30" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="B30" s="81" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="82" t="s">
+        <v>69</v>
+      </c>
+      <c r="H30" s="126" t="s">
+        <v>70</v>
+      </c>
+      <c r="I30" s="126"/>
       <c r="J30" s="2">
         <v>3</v>
       </c>
@@ -4370,140 +4497,140 @@
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="106" t="s">
+      <c r="A31" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="107">
+      <c r="B31" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="84">
         <v>10</v>
       </c>
-      <c r="D31" s="108" t="s">
-        <v>83</v>
+      <c r="D31" s="85" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="106" t="s">
+      <c r="A32" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B32" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="109">
+      <c r="B32" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32" s="86">
         <v>10</v>
       </c>
-      <c r="D32" s="108" t="s">
-        <v>83</v>
+      <c r="D32" s="85" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="106" t="s">
-        <v>84</v>
-      </c>
-      <c r="B33" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="109">
+      <c r="A33" s="83" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="86">
         <v>2</v>
       </c>
-      <c r="D33" s="108" t="s">
-        <v>85</v>
+      <c r="D33" s="85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="106" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="109">
+      <c r="A34" s="83" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="86">
         <v>2</v>
       </c>
-      <c r="D34" s="108" t="s">
-        <v>85</v>
+      <c r="D34" s="85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="107" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" s="109">
+      <c r="A35" s="83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="86">
         <v>2</v>
       </c>
-      <c r="D35" s="108" t="s">
-        <v>85</v>
+      <c r="D35" s="85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="109">
+      <c r="A36" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="86">
         <v>5</v>
       </c>
-      <c r="D36" s="108" t="s">
-        <v>85</v>
+      <c r="D36" s="85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="109">
+      <c r="A37" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="84" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="86">
         <v>5</v>
       </c>
-      <c r="D37" s="108" t="s">
-        <v>85</v>
+      <c r="D37" s="85" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="112">
+      <c r="A38" s="87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="89">
         <v>5</v>
       </c>
-      <c r="D38" s="113" t="s">
-        <v>85</v>
+      <c r="D38" s="90" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="98" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="100"/>
+      <c r="A39" s="110" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="111"/>
+      <c r="C39" s="111"/>
+      <c r="D39" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="I4:M4"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:S4"/>
     <mergeCell ref="A11:E11"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="H29:I29"/>
     <mergeCell ref="H30:I30"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="I4:M4"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
